--- a/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C9314F-49A2-4DD8-8D3B-23388DDAF95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED5DB3AD-53A2-41C2-BB42-D4F0DB3E367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{139160CC-44D2-4CA9-91B9-64402B9D51FA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0DEF229F-19A8-42B2-95C2-BAAE88A750CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,60 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
     <t>73,41%</t>
   </si>
   <si>
@@ -98,63 +152,81 @@
     <t>94,2%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
@@ -170,76 +242,55 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>87,89%</t>
@@ -263,60 +314,93 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
     <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
   </si>
   <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
     <t>53,39%</t>
   </si>
   <si>
@@ -344,88 +428,151 @@
     <t>71,7%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -452,151 +599,94 @@
     <t>93,75%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>77,9%</t>
@@ -626,99 +716,30 @@
     <t>79,98%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
     <t>84,84%</t>
   </si>
   <si>
@@ -734,25 +755,97 @@
     <t>66,24%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>86,33%</t>
@@ -773,97 +866,61 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>86,26%</t>
@@ -890,66 +947,30 @@
     <t>94,32%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
   </si>
   <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
     <t>76,89%</t>
   </si>
   <si>
@@ -965,25 +986,73 @@
     <t>38,38%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>92,14%</t>
@@ -1004,73 +1073,43 @@
     <t>75,41%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>87,2%</t>
@@ -1095,45 +1134,6 @@
   </si>
   <si>
     <t>96,23%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C7FB05-CB69-4D4A-8AA0-788764512B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A784C-0855-40BF-AE10-CB9DD912E626}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1640,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
-        <v>16</v>
-      </c>
       <c r="D4" s="7">
-        <v>10734</v>
+        <v>660</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1658,55 +1658,55 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>660</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10086</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>20820</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1715,28 +1715,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1751,13 @@
         <v>1178</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1781,25 +1781,25 @@
         <v>1178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -1808,7 +1808,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1817,79 +1817,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>660</v>
+        <v>10734</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10086</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="7">
+        <v>32</v>
+      </c>
+      <c r="N8" s="7">
+        <v>20820</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>660</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1904,13 @@
         <v>14622</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -1919,13 +1919,13 @@
         <v>10086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -1934,13 +1934,13 @@
         <v>24708</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,58 +1948,58 @@
         <v>37</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>18902</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13359</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>48</v>
-      </c>
-      <c r="N10" s="7">
-        <v>32261</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2008,43 +2008,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2089,115 +2089,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>674</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>8895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>8542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>17437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,99 +2206,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
-        <v>18902</v>
+        <v>10317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>13896</v>
+        <v>9216</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>32798</v>
+        <v>19533</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>8895</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>8542</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>17437</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>57</v>
@@ -2307,52 +2307,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1422</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2096</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2418,94 +2418,94 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>18902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>13359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="7">
+        <v>48</v>
+      </c>
+      <c r="N20" s="7">
+        <v>32261</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2514,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7">
-        <v>10317</v>
+        <v>18902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7">
-        <v>9216</v>
+        <v>13896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N21" s="7">
-        <v>19533</v>
+        <v>32798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,103 +2564,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="7">
-        <v>58</v>
-      </c>
       <c r="D22" s="7">
-        <v>38531</v>
+        <v>660</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H22" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>31987</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>660</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="7">
-        <v>106</v>
-      </c>
-      <c r="N22" s="7">
-        <v>70519</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>4682</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2675,13 @@
         <v>1178</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2705,112 +2705,112 @@
         <v>1178</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>3472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4682</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>660</v>
+        <v>38531</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="7">
+        <v>48</v>
+      </c>
+      <c r="I26" s="7">
+        <v>31987</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7">
+        <v>106</v>
+      </c>
+      <c r="N26" s="7">
+        <v>70519</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>660</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>90</v>
@@ -2828,13 +2828,13 @@
         <v>43841</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2843,13 +2843,13 @@
         <v>33198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -2858,13 +2858,13 @@
         <v>77039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA689EDD-53A8-4D1A-B61C-847FBBEE9F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974C9BD-F6C4-4493-882A-FC27F9950D64}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2998,103 +2998,103 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
-        <v>13</v>
-      </c>
       <c r="D4" s="7">
-        <v>9057</v>
+        <v>641</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>627</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6763</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1268</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15820</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>674</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>731</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2744</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>1405</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1314</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4058</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3109,13 @@
         <v>3848</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3124,13 +3124,13 @@
         <v>1401</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -3139,112 +3139,112 @@
         <v>5249</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
       <c r="D7" s="7">
-        <v>674</v>
+        <v>2744</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1314</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4058</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>731</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1405</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>641</v>
+        <v>9057</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="7">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6763</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>627</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15820</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1268</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>128</v>
@@ -3262,13 +3262,13 @@
         <v>16964</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -3277,13 +3277,13 @@
         <v>10836</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -3292,13 +3292,13 @@
         <v>27799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,103 +3306,103 @@
         <v>37</v>
       </c>
       <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
-        <v>22710</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>675</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>675</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13062</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>52</v>
-      </c>
-      <c r="N10" s="7">
-        <v>35771</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1963</v>
+        <v>722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,97 +3411,97 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>744</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2230</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <v>2952</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="N12" s="7">
+        <v>2975</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>595</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3547</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5799</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7238</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>152</v>
@@ -3510,52 +3510,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>18696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>12317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>31013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,153 +3564,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>26935</v>
+        <v>20880</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>14346</v>
+        <v>21742</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="7">
-        <v>41280</v>
+        <v>42622</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>18696</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>12317</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>31013</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5799</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7238</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,148 +3719,148 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2952</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>744</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>595</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3547</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2230</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M18" s="7">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2975</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>722</v>
+        <v>1963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>22710</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>675</v>
+        <v>13062</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="7">
+        <v>52</v>
+      </c>
+      <c r="N20" s="7">
+        <v>35771</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>675</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>185</v>
@@ -3872,49 +3872,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>20880</v>
+        <v>26935</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7">
-        <v>21742</v>
+        <v>14346</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>42622</v>
+        <v>41280</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,103 +3922,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="7">
-        <v>72</v>
-      </c>
       <c r="D22" s="7">
-        <v>50463</v>
+        <v>641</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1302</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="7">
-        <v>47</v>
-      </c>
-      <c r="I22" s="7">
-        <v>32141</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1943</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M22" s="7">
-        <v>119</v>
-      </c>
-      <c r="N22" s="7">
-        <v>82603</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>674</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="7">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7">
-        <v>5456</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>1452</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2126</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H23" s="7">
-        <v>11</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7802</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="7">
-        <v>19</v>
-      </c>
-      <c r="N23" s="7">
-        <v>13259</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4033,13 @@
         <v>7544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4048,13 +4048,13 @@
         <v>4226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -4063,115 +4063,115 @@
         <v>11770</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>674</v>
+        <v>5456</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7802</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="7">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
+        <v>13259</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1452</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2126</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
-        <v>641</v>
+        <v>50463</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="7">
+        <v>47</v>
+      </c>
+      <c r="I26" s="7">
+        <v>32141</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1302</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>119</v>
+      </c>
+      <c r="N26" s="7">
+        <v>82603</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1943</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4186,13 @@
         <v>64778</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>68</v>
@@ -4201,13 +4201,13 @@
         <v>46923</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>161</v>
@@ -4216,13 +4216,13 @@
         <v>111701</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDA573F-ABE2-4295-8865-7305BA7D9238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622E5FC7-0242-4F6C-8467-02C96CB235C1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4356,73 +4356,73 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6670</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2791</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9461</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4431,28 +4431,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4482,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4497,34 +4497,34 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4533,79 +4533,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6670</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>2791</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="7">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7">
+        <v>9461</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4620,13 @@
         <v>7862</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -4635,13 +4635,13 @@
         <v>2791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4650,13 +4650,13 @@
         <v>10653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,103 +4664,103 @@
         <v>37</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>19087</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>30842</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1596</v>
+        <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1596</v>
+        <v>1317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,19 +4769,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4790,130 +4790,130 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>8897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>16502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,99 +4922,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>22109</v>
+        <v>10205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>11756</v>
+        <v>8822</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>33864</v>
+        <v>19028</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>8897</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>7604</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>16502</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>260</v>
@@ -5023,52 +5023,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,19 +5077,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5098,130 +5098,130 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1426</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>700</v>
+        <v>1596</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1317</v>
+        <v>1596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>19087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>11756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>30842</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,49 +5230,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>10205</v>
+        <v>22109</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>8822</v>
+        <v>11756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N21" s="7">
-        <v>19028</v>
+        <v>33864</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,103 +5280,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>34654</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22151</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="7">
-        <v>83</v>
-      </c>
-      <c r="N22" s="7">
-        <v>56805</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>3396</v>
+        <v>700</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>3997</v>
+        <v>1317</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5391,13 @@
         <v>1426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5406,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5421,112 +5421,112 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>700</v>
+        <v>3396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>1317</v>
+        <v>3997</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>34654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>34</v>
+      </c>
+      <c r="I26" s="7">
+        <v>22151</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7">
+        <v>83</v>
+      </c>
+      <c r="N26" s="7">
+        <v>56805</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>301</v>
@@ -5544,13 +5544,13 @@
         <v>40176</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -5559,13 +5559,13 @@
         <v>23369</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>93</v>
@@ -5574,13 +5574,13 @@
         <v>63545</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5599,7 +5599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AEAB4F-7E98-475F-A12D-792E8E974F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2C6B9-85EA-4E3E-BB8D-19369030BDBC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5714,73 +5714,73 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1880</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1384</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3265</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5789,28 +5789,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5840,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5855,34 +5855,34 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5891,79 +5891,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1384</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3265</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5978,13 @@
         <v>2445</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5993,13 +5993,13 @@
         <v>1384</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -6008,13 +6008,13 @@
         <v>3830</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,73 +6022,73 @@
         <v>37</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10568</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9984</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>28</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20552</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6097,28 +6097,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,145 +6133,145 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>7092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>11518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,153 +6280,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>11469</v>
+        <v>8495</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>10591</v>
+        <v>5226</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N15" s="7">
-        <v>22060</v>
+        <v>13721</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7092</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4426</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>11518</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,64 +6441,64 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6507,79 +6507,79 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>10568</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>9984</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="7">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7">
+        <v>20552</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,49 +6588,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>8495</v>
+        <v>11469</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
         <v>15</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
       <c r="I21" s="7">
-        <v>5226</v>
+        <v>10591</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N21" s="7">
-        <v>13721</v>
+        <v>22060</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,103 +6638,103 @@
         <v>3</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>19541</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7">
-        <v>15794</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="7">
-        <v>50</v>
-      </c>
-      <c r="N22" s="7">
-        <v>35335</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>2869</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6764,13 +6764,13 @@
         <v>607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6779,112 +6779,112 @@
         <v>607</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2869</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>800</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M25" s="7">
         <v>4</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>23</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>19541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>15794</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7">
+        <v>50</v>
+      </c>
+      <c r="N26" s="7">
+        <v>35335</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>364</v>
@@ -6902,13 +6902,13 @@
         <v>22410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>26</v>
@@ -6917,13 +6917,13 @@
         <v>17201</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -6932,13 +6932,13 @@
         <v>39611</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED5DB3AD-53A2-41C2-BB42-D4F0DB3E367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E7995E-21CB-4E81-B858-2DA87137A1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0DEF229F-19A8-42B2-95C2-BAAE88A750CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{835C0146-B6C9-4E29-A55C-4207576EEF58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="365">
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="390">
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1012 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,18%</t>
+    <t>54,72%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>3-7</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>10,85%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>7,58%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>10,63%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>84,2%</t>
+    <t>81,65%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1082,58 +1157,58 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>21,16%</t>
+    <t>19,33%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>74,63%</t>
+    <t>75,48%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1219,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1240,39 +1315,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1324,7 +1399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1435,13 +1510,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1450,6 +1518,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1514,19 +1589,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1A784C-0855-40BF-AE10-CB9DD912E626}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0FB62-AD82-43E1-87E3-9F3B10CCC959}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1646,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1787,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,19 +1891,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1826,19 +1921,19 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,49 +1942,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>10734</v>
+        <v>5199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3529</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7">
+        <v>8727</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10086</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="7">
-        <v>32</v>
-      </c>
-      <c r="N8" s="7">
-        <v>20820</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,54 +1993,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>14622</v>
+        <v>7037</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>10086</v>
+        <v>3529</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>24708</v>
+        <v>10565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1963,7 +2058,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1978,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1993,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2029,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2044,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2080,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2095,7 +2190,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,19 +2199,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>1422</v>
+        <v>3472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2125,28 +2220,28 @@
         <v>674</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4146</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2096</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,49 +2250,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>8895</v>
+        <v>11259</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12169</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8542</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7">
+        <v>35</v>
+      </c>
+      <c r="N14" s="7">
+        <v>23428</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7">
-        <v>26</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17437</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,54 +2301,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>10317</v>
+        <v>14731</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>9216</v>
+        <v>12843</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N15" s="7">
-        <v>19533</v>
+        <v>27574</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2271,37 +2366,37 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,37 +2417,37 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,37 +2468,37 @@
         <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2433,13 +2528,13 @@
         <v>537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2448,13 +2543,13 @@
         <v>537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2558,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>18902</v>
+        <v>9705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7464</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13359</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>25</v>
+      </c>
+      <c r="N20" s="7">
+        <v>17169</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="7">
-        <v>48</v>
-      </c>
-      <c r="N20" s="7">
-        <v>32261</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,102 +2609,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>18902</v>
+        <v>9705</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>13896</v>
+        <v>8001</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>32798</v>
+        <v>17706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>660</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,7 +2725,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2645,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2660,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,19 +2764,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2696,22 +2791,22 @@
         <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,49 +2815,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>4682</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,49 +2866,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
-        <v>38531</v>
+        <v>12369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I26" s="7">
-        <v>31987</v>
+        <v>8825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M26" s="7">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="N26" s="7">
-        <v>70519</v>
+        <v>21194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,55 +2917,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <v>12369</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>13</v>
+      </c>
+      <c r="I27" s="7">
+        <v>8825</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
+        <v>32</v>
+      </c>
+      <c r="N27" s="7">
+        <v>21194</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>660</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>660</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1178</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1178</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3472</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1211</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4682</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>58</v>
+      </c>
+      <c r="D32" s="7">
+        <v>38531</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="7">
+        <v>48</v>
+      </c>
+      <c r="I32" s="7">
+        <v>31987</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="7">
+        <v>106</v>
+      </c>
+      <c r="N32" s="7">
+        <v>70519</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>66</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>43841</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7">
         <v>50</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>33198</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="7">
         <v>116</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>77039</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>33</v>
+      <c r="O33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2883,8 +3292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974C9BD-F6C4-4493-882A-FC27F9950D64}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847012FE-9049-4C9B-B41B-C751C80C54E6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2900,7 +3309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3007,13 +3416,13 @@
         <v>641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3022,13 +3431,13 @@
         <v>627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3037,13 +3446,13 @@
         <v>1268</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3467,13 @@
         <v>674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3073,13 +3482,13 @@
         <v>731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3088,13 +3497,13 @@
         <v>1405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,19 +3512,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>3848</v>
+        <v>1315</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3124,28 +3533,28 @@
         <v>1401</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>5249</v>
+        <v>2715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,19 +3563,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2744</v>
+        <v>1340</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3175,28 +3584,28 @@
         <v>1314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4058</v>
+        <v>2654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,49 +3614,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>9057</v>
+        <v>4595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>6763</v>
+        <v>5390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>15820</v>
+        <v>9986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,54 +3665,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>16964</v>
+        <v>8565</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>10836</v>
+        <v>9463</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>27799</v>
+        <v>18028</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -3321,37 +3730,37 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3381,13 +3790,13 @@
         <v>722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3396,13 +3805,13 @@
         <v>722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,49 +3820,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>744</v>
+        <v>3278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2230</v>
+        <v>1555</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>2975</v>
+        <v>4833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,19 +3871,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1440</v>
+        <v>2843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3483,28 +3892,28 @@
         <v>5799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>7238</v>
+        <v>8642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,49 +3922,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>18696</v>
+        <v>20950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>12317</v>
+        <v>9699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>31013</v>
+        <v>30649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,54 +3973,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7">
-        <v>20880</v>
+        <v>27071</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7">
-        <v>21742</v>
+        <v>17775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>42622</v>
+        <v>44846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3629,37 +4038,37 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3695,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3710,7 +4119,7 @@
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +4128,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2952</v>
+        <v>657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>3547</v>
+        <v>1332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,49 +4179,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1273</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +4230,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>22710</v>
+        <v>9068</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8071</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>23</v>
+      </c>
+      <c r="N20" s="7">
+        <v>17139</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H20" s="7">
-        <v>19</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13062</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="7">
-        <v>52</v>
-      </c>
-      <c r="N20" s="7">
-        <v>35771</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,102 +4281,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>26935</v>
+        <v>9725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>14346</v>
+        <v>9421</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>41280</v>
+        <v>19146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1943</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,49 +4385,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,49 +4436,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7544</v>
+        <v>2294</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>4226</v>
+        <v>595</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>11770</v>
+        <v>2889</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,49 +4487,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>5456</v>
+        <v>1273</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>7802</v>
+        <v>689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>13259</v>
+        <v>1963</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,49 +4538,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D26" s="7">
-        <v>50463</v>
+        <v>15851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H26" s="7">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I26" s="7">
-        <v>32141</v>
+        <v>8980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>82603</v>
+        <v>24830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,55 +4589,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7">
+        <v>19418</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7">
+        <v>10264</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
+        <v>44</v>
+      </c>
+      <c r="N27" s="7">
+        <v>29682</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>641</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1302</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1943</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>674</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1452</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2126</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7544</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4226</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" s="7">
+        <v>17</v>
+      </c>
+      <c r="N30" s="7">
+        <v>11770</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5456</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="7">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7802</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="7">
+        <v>19</v>
+      </c>
+      <c r="N31" s="7">
+        <v>13259</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>72</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50463</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="7">
+        <v>47</v>
+      </c>
+      <c r="I32" s="7">
+        <v>32141</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="7">
+        <v>119</v>
+      </c>
+      <c r="N32" s="7">
+        <v>82603</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>93</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>64778</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7">
         <v>68</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>46923</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="7">
         <v>161</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>111701</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>33</v>
+      <c r="O33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4241,8 +4964,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622E5FC7-0242-4F6C-8467-02C96CB235C1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF1069-D8AB-4D72-813B-36DA67E03BA7}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4258,7 +4981,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4371,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4386,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4401,7 +5124,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4437,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4452,7 +5175,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +5196,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4488,7 +5211,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4503,7 +5226,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,19 +5235,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1192</v>
+        <v>633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4539,22 +5262,22 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1192</v>
+        <v>633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,49 +5286,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>6670</v>
+        <v>2106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1119</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
-        <v>2791</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="7">
-        <v>15</v>
-      </c>
       <c r="N8" s="7">
-        <v>9461</v>
+        <v>3225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,54 +5337,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>7862</v>
+        <v>2739</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>2791</v>
+        <v>1119</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>10653</v>
+        <v>3858</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -4679,7 +5402,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4694,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4709,7 +5432,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,49 +5441,49 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1317</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +5504,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4796,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4811,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,16 +5546,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4841,28 +5564,28 @@
         <v>601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1209</v>
+        <v>1159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,49 +5594,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>8897</v>
+        <v>10272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>7604</v>
+        <v>5745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>16502</v>
+        <v>16017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,54 +5645,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
-        <v>10205</v>
+        <v>10830</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>8822</v>
+        <v>6346</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>19028</v>
+        <v>17176</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -4987,7 +5710,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5002,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5017,7 +5740,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +5749,49 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,19 +5800,19 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5104,22 +5827,22 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,16 +5854,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1596</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5155,22 +5878,22 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1596</v>
+        <v>1299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5902,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10193</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5648</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="7">
-        <v>19087</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M20" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>30842</v>
+        <v>15841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,54 +5953,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>22109</v>
+        <v>12191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>11756</v>
+        <v>6265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N21" s="7">
-        <v>33864</v>
+        <v>18456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -5295,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5310,7 +6033,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5325,7 +6048,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +6057,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1317</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +6114,13 @@
         <v>1426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5412,7 +6135,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5421,13 +6144,13 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,49 +6159,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>3396</v>
+        <v>905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
-        <v>601</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
       <c r="N25" s="7">
-        <v>3997</v>
+        <v>905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6210,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>34654</v>
+        <v>12083</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>22151</v>
+        <v>9639</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="7">
         <v>31</v>
       </c>
-      <c r="M26" s="7">
-        <v>83</v>
-      </c>
       <c r="N26" s="7">
-        <v>56805</v>
+        <v>21722</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,55 +6261,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7">
+        <v>14415</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>14</v>
+      </c>
+      <c r="I27" s="7">
+        <v>9639</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
+        <v>34</v>
+      </c>
+      <c r="N27" s="7">
+        <v>24054</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>700</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>617</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1317</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1426</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1426</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3396</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>601</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3997</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7">
+        <v>34654</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" s="7">
+        <v>34</v>
+      </c>
+      <c r="I32" s="7">
+        <v>22151</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="7">
+        <v>83</v>
+      </c>
+      <c r="N32" s="7">
+        <v>56805</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>40176</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7">
         <v>36</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>23369</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="7">
         <v>93</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>63545</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>33</v>
+      <c r="O33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5599,8 +6636,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2C6B9-85EA-4E3E-BB8D-19369030BDBC}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA360CB0-49EA-47ED-8717-E585D95AEFF1}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5616,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5729,7 +6766,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5744,7 +6781,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5759,7 +6796,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5795,7 +6832,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5810,7 +6847,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,7 +6868,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5846,7 +6883,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5861,7 +6898,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,19 +6907,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5897,22 +6934,22 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,49 +6958,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1880</v>
+        <v>1268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1384</v>
+        <v>753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3265</v>
+        <v>2021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,54 +7009,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>753</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
-        <v>2445</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1384</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="7">
-        <v>7</v>
-      </c>
       <c r="N9" s="7">
-        <v>3830</v>
+        <v>2021</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -6037,7 +7074,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6052,7 +7089,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6067,7 +7104,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +7125,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6103,7 +7140,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6118,7 +7155,7 @@
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,7 +7176,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6154,7 +7191,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6169,7 +7206,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,16 +7218,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1403</v>
+        <v>565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6199,28 +7236,28 @@
         <v>800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2203</v>
+        <v>1365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,49 +7266,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>7092</v>
+        <v>4461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>4426</v>
+        <v>2982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>11518</v>
+        <v>7443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,54 +7317,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>8495</v>
+        <v>5026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>5226</v>
+        <v>3782</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>13721</v>
+        <v>8808</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -6345,7 +7382,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6360,7 +7397,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6375,7 +7412,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,7 +7433,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6411,7 +7448,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6426,7 +7463,7 @@
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,37 +7484,37 @@
         <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,46 +7526,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>901</v>
+        <v>1403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>901</v>
+        <v>1403</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,49 +7574,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>10568</v>
+        <v>6084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>9984</v>
+        <v>4950</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M20" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>20552</v>
+        <v>11033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,54 +7625,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>11469</v>
+        <v>7487</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>10591</v>
+        <v>4950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>22060</v>
+        <v>12436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -6653,7 +7690,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6668,7 +7705,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6683,7 +7720,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,7 +7741,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6719,7 +7756,7 @@
         <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6734,7 +7771,7 @@
         <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>345</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,7 +7792,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6764,13 +7801,13 @@
         <v>607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6779,13 +7816,13 @@
         <v>607</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,49 +7831,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2869</v>
+        <v>901</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
-        <v>800</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
       <c r="N25" s="7">
-        <v>3669</v>
+        <v>901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,49 +7882,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7728</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7">
-        <v>19541</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="H26" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>15794</v>
+        <v>7109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N26" s="7">
-        <v>35335</v>
+        <v>14837</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,55 +7933,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7">
+        <v>8629</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <v>11</v>
+      </c>
+      <c r="I27" s="7">
+        <v>7716</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
+        <v>22</v>
+      </c>
+      <c r="N27" s="7">
+        <v>16345</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>607</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>607</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2869</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>800</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3669</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7">
+        <v>19541</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32" s="7">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7">
+        <v>15794</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="7">
+        <v>50</v>
+      </c>
+      <c r="N32" s="7">
+        <v>35335</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>22410</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7">
         <v>26</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>17201</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="7">
         <v>55</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>39611</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>33</v>
+      <c r="O33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E7995E-21CB-4E81-B858-2DA87137A1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76BB9EA-82B7-4971-812F-1A01B3288B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{835C0146-B6C9-4E29-A55C-4207576EEF58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9959A221-398B-4050-881E-B37A1F07EBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="384">
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>54,72%</t>
+    <t>46,85%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>30,64%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -101,22 +101,22 @@
     <t>16,74%</t>
   </si>
   <si>
-    <t>51,43%</t>
+    <t>52,38%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>33,48%</t>
+    <t>35,89%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -131,10 +131,10 @@
     <t>82,6%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -152,49 +152,49 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>27,56%</t>
+    <t>23,05%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>72,44%</t>
+    <t>76,95%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -212,13 +212,13 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>32,3%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>16,01%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -227,13 +227,13 @@
     <t>93,29%</t>
   </si>
   <si>
-    <t>65,35%</t>
+    <t>67,7%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>83,99%</t>
+    <t>87,25%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -257,7 +257,7 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -266,7 +266,7 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -278,514 +278,514 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>9,24%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>87,89%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -803,7 +803,7 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>66,56%</t>
+    <t>67,69%</t>
   </si>
   <si>
     <t>76,87%</t>
@@ -818,7 +818,7 @@
     <t>83,58%</t>
   </si>
   <si>
-    <t>33,44%</t>
+    <t>32,31%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -827,37 +827,37 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>26,46%</t>
+    <t>27,99%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>42,01%</t>
+    <t>49,64%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,18%</t>
+    <t>20,58%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>73,54%</t>
+    <t>72,01%</t>
   </si>
   <si>
     <t>90,53%</t>
   </si>
   <si>
-    <t>57,99%</t>
+    <t>50,36%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>78,82%</t>
+    <t>79,42%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -866,97 +866,91 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>24,35%</t>
+    <t>36,99%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>60,69%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>74,3%</t>
+    <t>74,23%</t>
   </si>
   <si>
     <t>97,05%</t>
@@ -968,76 +962,73 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
+    <t>11,12%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,9%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
@@ -1052,55 +1043,55 @@
     <t>11,24%</t>
   </si>
   <si>
-    <t>51,55%</t>
+    <t>52,71%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>74,94%</t>
+    <t>78,99%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>47,83%</t>
+    <t>43,17%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>48,45%</t>
+    <t>47,29%</t>
   </si>
   <si>
     <t>78,86%</t>
   </si>
   <si>
-    <t>25,06%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>52,17%</t>
+    <t>56,83%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>65,52%</t>
+    <t>67,46%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>49,52%</t>
+    <t>50,61%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>34,48%</t>
+    <t>32,54%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -1109,46 +1100,46 @@
     <t>88,72%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>19,4%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>42,32%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>26,71%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>57,68%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>64,7%</t>
+    <t>61,85%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>68,82%</t>
+    <t>69,14%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1157,10 +1148,10 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,8%</t>
@@ -1169,46 +1160,37 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>32,5%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>19,33%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>67,5%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>75,14%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0FB62-AD82-43E1-87E3-9F3B10CCC959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE56ED45-93A3-443F-9ED3-6FA3B3C9408C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3292,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847012FE-9049-4C9B-B41B-C751C80C54E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99744B1F-CC79-4BB2-BDA3-ABE516E23CFF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,10 +3533,10 @@
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3551,13 @@
         <v>1340</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3584,13 +3566,13 @@
         <v>1314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3599,13 +3581,13 @@
         <v>2654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3602,13 @@
         <v>4595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3635,13 +3617,13 @@
         <v>5390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3650,13 +3632,13 @@
         <v>9986</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3745,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3760,7 +3742,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3763,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3826,13 +3808,13 @@
         <v>3278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3841,13 +3823,13 @@
         <v>1555</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3856,13 +3838,13 @@
         <v>4833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3859,13 @@
         <v>2843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3892,13 +3874,13 @@
         <v>5799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3907,13 +3889,13 @@
         <v>8642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3910,13 @@
         <v>20950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -3943,13 +3925,13 @@
         <v>9699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3958,13 +3940,13 @@
         <v>30649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4029,13 @@
         <v>675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4062,13 +4044,13 @@
         <v>675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4116,13 @@
         <v>657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4149,13 +4131,13 @@
         <v>675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4164,13 +4146,13 @@
         <v>1332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,10 +4218,10 @@
         <v>9068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4251,10 +4233,10 @@
         <v>8071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4266,13 +4248,13 @@
         <v>17139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4328,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4361,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4376,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4412,7 +4394,7 @@
         <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4427,7 +4409,7 @@
         <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4424,13 @@
         <v>2294</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4457,13 +4439,13 @@
         <v>595</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4472,13 +4454,13 @@
         <v>2889</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4475,13 @@
         <v>1273</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4508,13 +4490,13 @@
         <v>689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4523,13 +4505,13 @@
         <v>1963</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4526,13 @@
         <v>15851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4559,10 +4541,10 @@
         <v>8980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -4574,13 +4556,13 @@
         <v>24830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4630,13 @@
         <v>641</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4663,13 +4645,13 @@
         <v>1302</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4678,13 +4660,13 @@
         <v>1943</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4681,13 @@
         <v>674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4714,13 +4696,13 @@
         <v>1452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4729,13 +4711,13 @@
         <v>2126</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4732,13 @@
         <v>7544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -4765,13 +4747,13 @@
         <v>4226</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -4780,13 +4762,13 @@
         <v>11770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4783,13 @@
         <v>5456</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4816,13 +4798,13 @@
         <v>7802</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4831,7 +4813,7 @@
         <v>13259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>237</v>
@@ -4964,7 +4946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AF1069-D8AB-4D72-813B-36DA67E03BA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6812AEB8-6FCA-45CC-BEDE-FF01FDAAE652}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5785,13 +5767,13 @@
         <v>1317</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5839,13 @@
         <v>1299</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5893,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5890,13 @@
         <v>10193</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5923,10 +5905,10 @@
         <v>5648</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5938,13 +5920,13 @@
         <v>15841</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,7 +6000,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6048,7 +6030,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,7 +6051,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6099,7 +6081,7 @@
         <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6096,13 @@
         <v>1426</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6144,13 +6126,13 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6147,13 @@
         <v>905</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6195,13 +6177,13 @@
         <v>905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6198,13 @@
         <v>12083</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6246,13 +6228,13 @@
         <v>21722</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,7 +6308,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6356,7 +6338,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6353,13 @@
         <v>700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6386,13 +6368,13 @@
         <v>617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6401,13 +6383,13 @@
         <v>1317</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6404,13 @@
         <v>1426</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6452,13 +6434,13 @@
         <v>1426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6455,13 @@
         <v>3396</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6488,13 +6470,13 @@
         <v>601</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -6503,13 +6485,13 @@
         <v>3997</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6506,13 @@
         <v>34654</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -6539,10 +6521,10 @@
         <v>22151</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>26</v>
@@ -6554,13 +6536,13 @@
         <v>56805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA360CB0-49EA-47ED-8717-E585D95AEFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D340BBCF-2820-41C2-80EF-D361407DFB97}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6997,7 +6979,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -7074,7 +7056,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7125,7 +7107,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7176,7 +7158,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7221,13 +7203,13 @@
         <v>565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7236,13 +7218,13 @@
         <v>800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -7251,13 +7233,13 @@
         <v>1365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,10 +7254,10 @@
         <v>4461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -7287,10 +7269,10 @@
         <v>2982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -7302,10 +7284,10 @@
         <v>7443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -7382,7 +7364,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7397,7 +7379,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7433,7 +7415,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7448,7 +7430,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7484,7 +7466,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7499,7 +7481,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7529,13 +7511,13 @@
         <v>1403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7550,7 +7532,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7559,13 +7541,13 @@
         <v>1403</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,10 +7562,10 @@
         <v>6084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -7598,7 +7580,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>28</v>
@@ -7610,10 +7592,10 @@
         <v>11033</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -7807,7 +7789,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7816,13 +7798,13 @@
         <v>607</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7819,13 @@
         <v>901</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7867,13 +7849,13 @@
         <v>901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,10 +7870,10 @@
         <v>7728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -7903,10 +7885,10 @@
         <v>7109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>26</v>
@@ -7918,10 +7900,10 @@
         <v>14837</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -7998,7 +7980,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8028,7 +8010,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,7 +8031,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8079,7 +8061,7 @@
         <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,7 +8082,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8109,13 +8091,13 @@
         <v>607</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -8130,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8127,13 @@
         <v>2869</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -8160,13 +8142,13 @@
         <v>800</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -8175,13 +8157,13 @@
         <v>3669</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8178,13 @@
         <v>19541</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -8211,10 +8193,10 @@
         <v>15794</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>26</v>
@@ -8226,13 +8208,13 @@
         <v>35335</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76BB9EA-82B7-4971-812F-1A01B3288B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3EB7AA-68B5-45C0-8824-C37A5C63996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9959A221-398B-4050-881E-B37A1F07EBCE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{EEE1A189-C92B-49A3-A2FB-B3855C44B0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="391">
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,25 +71,25 @@
     <t>0-2</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>38,52%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>30,64%</t>
+    <t>33,3%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -101,139 +101,139 @@
     <t>16,74%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>35,89%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>9,49%</t>
+  </si>
+  <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>32,3%</t>
+    <t>37,24%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>12,75%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>87,25%</t>
+    <t>83,73%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -245,952 +245,973 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE56ED45-93A3-443F-9ED3-6FA3B3C9408C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC8F2D0-6390-4685-9340-02EA72C6DD3B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1720,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1735,16 +1756,16 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1759,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -1777,29 +1798,29 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
@@ -1807,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -1822,34 +1843,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1178</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1861,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -1879,29 +1900,29 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
@@ -1909,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>18</v>
@@ -1924,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5199</v>
+        <v>3529</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -1939,10 +1960,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>3529</v>
+        <v>5199</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -1975,34 +1996,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
+        <v>3529</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
         <v>7037</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3529</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2011,13 +2032,13 @@
         <v>10565</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -2049,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>34</v>
@@ -2064,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -2085,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>33</v>
@@ -2100,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>34</v>
@@ -2115,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>35</v>
@@ -2136,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
@@ -2151,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -2166,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -2181,31 +2202,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3472</v>
+        <v>674</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3472</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>674</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>40</v>
@@ -2232,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>11259</v>
+        <v>12169</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>44</v>
@@ -2244,22 +2265,22 @@
         <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11259</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12169</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -2283,34 +2304,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12843</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>14731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7">
-        <v>12843</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>41</v>
@@ -2319,13 +2340,13 @@
         <v>27574</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>53</v>
@@ -2357,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>54</v>
@@ -2372,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>55</v>
@@ -2393,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>53</v>
@@ -2408,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>54</v>
@@ -2423,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>55</v>
@@ -2444,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>53</v>
@@ -2459,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>54</v>
@@ -2474,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>55</v>
@@ -2489,34 +2510,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2528,7 +2549,7 @@
         <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>59</v>
@@ -2540,34 +2561,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7464</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>9705</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7464</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -2582,7 +2603,7 @@
         <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,34 +2612,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8001</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7">
         <v>14</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>9705</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8001</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -2627,13 +2648,13 @@
         <v>17706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2665,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2680,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>67</v>
@@ -2701,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2716,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2731,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>67</v>
@@ -2752,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2767,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2782,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>67</v>
@@ -2803,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2818,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2833,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>67</v>
@@ -2848,34 +2869,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>12369</v>
+        <v>8825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H26" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I26" s="7">
-        <v>8825</v>
+        <v>12369</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M26" s="7">
         <v>32</v>
@@ -2884,13 +2905,13 @@
         <v>21194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,34 +2920,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7">
+        <v>8825</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
         <v>19</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>12369</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="7">
-        <v>13</v>
-      </c>
-      <c r="I27" s="7">
-        <v>8825</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -2935,13 +2956,13 @@
         <v>21194</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,31 +2973,31 @@
         <v>5</v>
       </c>
       <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>660</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>73</v>
@@ -2991,7 +3012,7 @@
         <v>74</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>75</v>
@@ -3009,29 +3030,29 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M29" s="7">
         <v>0</v>
       </c>
@@ -3039,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>77</v>
@@ -3054,34 +3075,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>1178</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3093,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>81</v>
@@ -3105,31 +3126,31 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>3472</v>
+        <v>1211</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3472</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1211</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>86</v>
@@ -3156,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D32" s="7">
-        <v>38531</v>
+        <v>31987</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>90</v>
@@ -3168,22 +3189,22 @@
         <v>91</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="7">
+        <v>58</v>
+      </c>
+      <c r="I32" s="7">
+        <v>38531</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="7">
-        <v>48</v>
-      </c>
-      <c r="I32" s="7">
-        <v>31987</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M32" s="7">
         <v>106</v>
@@ -3207,34 +3228,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>33198</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7">
         <v>66</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>43841</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7">
-        <v>50</v>
-      </c>
-      <c r="I33" s="7">
-        <v>33198</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>116</v>
@@ -3243,13 +3264,13 @@
         <v>77039</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99744B1F-CC79-4BB2-BDA3-ABE516E23CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA270CF-E382-4E7D-9504-E55DCF37E07A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>101</v>
@@ -3410,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>103</v>
@@ -3431,7 +3452,7 @@
         <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>105</v>
@@ -3446,13 +3467,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>107</v>
@@ -3461,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>109</v>
@@ -3482,7 +3503,7 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>111</v>
@@ -3497,13 +3518,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1315</v>
+        <v>1401</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>113</v>
@@ -3512,13 +3533,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1401</v>
+        <v>1315</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>115</v>
@@ -3548,13 +3569,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1340</v>
+        <v>1314</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>120</v>
@@ -3563,13 +3584,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1314</v>
+        <v>1340</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>122</v>
@@ -3596,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>4595</v>
+        <v>5390</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>126</v>
@@ -3611,10 +3632,10 @@
         <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>5390</v>
+        <v>4595</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>129</v>
@@ -3647,34 +3668,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9463</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>8565</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9463</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -3683,13 +3704,13 @@
         <v>18028</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>135</v>
@@ -3721,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>136</v>
@@ -3736,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,34 +3772,34 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3787,13 +3808,13 @@
         <v>722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,34 +3823,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>3278</v>
+        <v>1555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>1555</v>
+        <v>3278</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3838,13 +3859,13 @@
         <v>4833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,34 +3874,34 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5799</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2843</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5799</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3889,13 +3910,13 @@
         <v>8642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,34 +3925,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>9699</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="7">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>20950</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9699</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -3940,13 +3961,13 @@
         <v>30649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,34 +3976,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17775</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>38</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27071</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>17775</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -3991,13 +4012,13 @@
         <v>44846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,34 +4029,34 @@
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>675</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4044,13 +4065,13 @@
         <v>675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -4080,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4095,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>55</v>
@@ -4113,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>172</v>
@@ -4128,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4146,13 +4167,13 @@
         <v>1332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>66</v>
@@ -4182,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>66</v>
@@ -4197,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>55</v>
@@ -4212,34 +4233,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8071</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>9068</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8071</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -4248,13 +4269,13 @@
         <v>17139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,31 +4287,31 @@
         <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>9725</v>
+        <v>9421</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>9421</v>
+        <v>9725</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -4299,13 +4320,13 @@
         <v>19146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4337,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4352,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4388,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4403,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,34 +4439,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2294</v>
+        <v>595</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>595</v>
+        <v>2294</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>189</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4454,13 +4475,13 @@
         <v>2889</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,34 +4490,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>689</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1273</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>689</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4505,13 +4526,13 @@
         <v>1963</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,25 +4541,25 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8980</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="7">
         <v>24</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>15851</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8980</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>204</v>
@@ -4547,7 +4568,7 @@
         <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -4556,13 +4577,13 @@
         <v>24830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,34 +4592,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7">
+        <v>10264</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
         <v>29</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>19418</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="7">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7">
-        <v>10264</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
@@ -4607,13 +4628,13 @@
         <v>29682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,34 +4645,34 @@
         <v>5</v>
       </c>
       <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1302</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>641</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1302</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4660,13 +4681,13 @@
         <v>1943</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,34 +4696,34 @@
         <v>4</v>
       </c>
       <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>674</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1452</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4711,13 +4732,13 @@
         <v>2126</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,34 +4747,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
+        <v>4226</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
         <v>7544</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="7">
-        <v>6</v>
-      </c>
-      <c r="I30" s="7">
-        <v>4226</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -4762,13 +4783,13 @@
         <v>11770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,34 +4798,34 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7802</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5456</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="7">
-        <v>11</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7802</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4813,13 +4834,13 @@
         <v>13259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,34 +4849,34 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <v>32141</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="7">
         <v>72</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>50463</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="7">
-        <v>47</v>
-      </c>
-      <c r="I32" s="7">
-        <v>32141</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M32" s="7">
         <v>119</v>
@@ -4864,13 +4885,13 @@
         <v>82603</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,34 +4900,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>68</v>
+      </c>
+      <c r="D33" s="7">
+        <v>46923</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7">
         <v>93</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>64778</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7">
-        <v>68</v>
-      </c>
-      <c r="I33" s="7">
-        <v>46923</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>161</v>
@@ -4915,13 +4936,13 @@
         <v>111701</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6812AEB8-6FCA-45CC-BEDE-FF01FDAAE652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91713AF-41C6-475C-A65E-DF5B0E45F255}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4963,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5070,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5085,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5100,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5136,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5151,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5187,13 +5208,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5202,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,34 +5238,34 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>633</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5253,13 +5274,13 @@
         <v>633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,34 +5289,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1119</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>2106</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1119</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5304,13 +5325,13 @@
         <v>3225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,34 +5340,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1119</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2739</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1119</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5355,13 +5376,13 @@
         <v>3858</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,29 +5399,29 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
@@ -5408,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>55</v>
@@ -5429,29 +5450,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -5459,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>55</v>
@@ -5480,29 +5501,29 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
@@ -5510,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>55</v>
@@ -5528,31 +5549,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5561,13 +5582,13 @@
         <v>1159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,34 +5597,34 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5745</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>10272</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5745</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -5612,13 +5633,13 @@
         <v>16017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,34 +5648,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6346</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>10830</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6346</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -5663,13 +5684,13 @@
         <v>17176</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,29 +5707,29 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
@@ -5716,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,31 +5755,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5767,13 +5788,13 @@
         <v>1317</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,29 +5809,29 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
@@ -5818,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,34 +5854,34 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1299</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5872,10 +5893,10 @@
         <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,34 +5905,34 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5648</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>10193</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5648</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -5920,13 +5941,13 @@
         <v>15841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,34 +5956,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6265</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>12191</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <v>6265</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -5971,13 +5992,13 @@
         <v>18456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6009,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6024,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6060,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6075,13 +6096,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,34 +6111,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1426</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6126,13 +6147,13 @@
         <v>1426</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,34 +6162,34 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>905</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6177,13 +6198,13 @@
         <v>905</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,34 +6213,34 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9639</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="7">
         <v>17</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>12083</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H26" s="7">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7">
-        <v>9639</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -6228,13 +6249,13 @@
         <v>21722</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,34 +6264,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9639</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
         <v>20</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>14415</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="7">
-        <v>14</v>
-      </c>
-      <c r="I27" s="7">
-        <v>9639</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>34</v>
@@ -6279,13 +6300,13 @@
         <v>24054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6317,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6332,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,31 +6371,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6383,13 +6404,13 @@
         <v>1317</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,34 +6419,34 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>1426</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -6434,13 +6455,13 @@
         <v>1426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,34 +6470,34 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>601</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3396</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>601</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -6485,13 +6506,13 @@
         <v>3997</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,34 +6521,34 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7">
+        <v>22151</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="7">
         <v>49</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>34654</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H32" s="7">
-        <v>34</v>
-      </c>
-      <c r="I32" s="7">
-        <v>22151</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -6536,13 +6557,13 @@
         <v>56805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,34 +6572,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>36</v>
+      </c>
+      <c r="D33" s="7">
+        <v>23369</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7">
         <v>57</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>40176</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7">
-        <v>36</v>
-      </c>
-      <c r="I33" s="7">
-        <v>23369</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>93</v>
@@ -6587,13 +6608,13 @@
         <v>63545</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D340BBCF-2820-41C2-80EF-D361407DFB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC4DEF4-E6B2-4034-AEAE-12CEA450B3BB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6635,7 +6656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6742,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6757,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6772,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6814,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6808,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6823,13 +6844,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6865,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6859,13 +6880,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6874,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6916,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6910,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6925,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,46 +6964,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1268</v>
+        <v>758</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>753</v>
+        <v>1337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2021</v>
+        <v>2095</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,46 +7015,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1268</v>
+        <v>758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>753</v>
+        <v>1337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>2021</v>
+        <v>2095</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7065,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7080,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>66</v>
@@ -7101,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7116,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7131,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -7152,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7167,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7182,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>66</v>
@@ -7200,46 +7221,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>565</v>
+        <v>761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>800</v>
+        <v>586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1365</v>
+        <v>1347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,49 +7269,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2957</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>6</v>
       </c>
-      <c r="D14" s="7">
-        <v>4461</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
       <c r="I14" s="7">
-        <v>2982</v>
+        <v>4972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>7443</v>
+        <v>7929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,49 +7320,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3718</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="7">
-        <v>5026</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6</v>
-      </c>
       <c r="I15" s="7">
-        <v>3782</v>
+        <v>5558</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>8808</v>
+        <v>9276</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7373,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7388,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>21</v>
@@ -7409,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7424,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7439,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -7460,13 +7481,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7475,13 +7496,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7490,10 +7511,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>21</v>
@@ -7505,49 +7526,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
-        <v>1403</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1403</v>
+        <v>1516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,49 +7577,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4878</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
-        <v>6084</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
       <c r="I20" s="7">
-        <v>4950</v>
+        <v>6186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>11033</v>
+        <v>11065</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,49 +7628,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4878</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
-        <v>7487</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>7</v>
-      </c>
       <c r="I21" s="7">
-        <v>4950</v>
+        <v>7702</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>12436</v>
+        <v>12581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,10 +7687,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>17</v>
@@ -7681,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>17</v>
@@ -7696,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
@@ -7732,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -7747,13 +7768,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,49 +7783,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>607</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,49 +7834,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>901</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,46 +7888,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>7728</v>
+        <v>7129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>7109</v>
+        <v>8475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
       </c>
       <c r="N26" s="7">
-        <v>14837</v>
+        <v>15605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,46 +7939,46 @@
         <v>11</v>
       </c>
       <c r="D27" s="7">
-        <v>8629</v>
+        <v>7797</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>7716</v>
+        <v>9436</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
       </c>
       <c r="N27" s="7">
-        <v>16345</v>
+        <v>17233</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7989,13 +8010,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8004,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8040,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8055,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,49 +8091,49 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,49 +8142,49 @@
         <v>2</v>
       </c>
       <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>761</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
-        <v>2869</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
       <c r="I31" s="7">
-        <v>800</v>
+        <v>3063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>3669</v>
+        <v>3824</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>193</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,49 +8193,49 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15722</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="7">
         <v>26</v>
       </c>
-      <c r="D32" s="7">
-        <v>19541</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H32" s="7">
-        <v>24</v>
-      </c>
       <c r="I32" s="7">
-        <v>15794</v>
+        <v>20971</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
       </c>
       <c r="N32" s="7">
-        <v>35335</v>
+        <v>36693</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,49 +8244,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7">
+        <v>17151</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="7">
         <v>29</v>
       </c>
-      <c r="D33" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7">
-        <v>26</v>
-      </c>
       <c r="I33" s="7">
-        <v>17201</v>
+        <v>24034</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>55</v>
       </c>
       <c r="N33" s="7">
-        <v>39611</v>
+        <v>41185</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
